--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/failures/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB487DBE-705E-6943-B69A-F0F7ED3D1D4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DB487DBE-705E-6943-B69A-F0F7ED3D1D4D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="10500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="10500" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario1" sheetId="2" r:id="rId2"/>
-    <sheet name="Scenario2" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario1" r:id="rId2" sheetId="2"/>
+    <sheet name="Scenario2" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -46,13 +46,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1702,13 +1703,29 @@
   </si>
   <si>
     <t>EndLoopIf( ${nexial.scope.currentIteration} = 2 )</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1785,8 +1802,311 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1805,8 +2125,467 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -1844,152 +2623,1274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="86">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2053,7 +3954,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2078,10 +3979,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2116,7 +4017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2151,7 +4052,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2245,21 +4146,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2276,7 +4177,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2328,26 +4229,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2421,25 +4322,28 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2513,25 +4417,28 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2598,26 +4505,26 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2681,26 +4588,26 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2755,26 +4662,26 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>350</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2823,26 +4730,26 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2885,26 +4792,26 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2941,26 +4848,26 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2997,17 +4904,17 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3038,17 +4945,17 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3076,17 +4983,17 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3114,17 +5021,17 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3149,17 +5056,17 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3184,17 +5091,17 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3216,17 +5123,17 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3248,17 +5155,17 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3274,17 +5181,17 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3297,14 +5204,14 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3317,14 +5224,14 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3337,14 +5244,14 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3357,19 +5264,19 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>546</v>
       </c>
       <c r="G22" t="s">
         <v>295</v>
@@ -3377,19 +5284,19 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>286</v>
@@ -3397,19 +5304,19 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
         <v>275</v>
@@ -3417,19 +5324,19 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>545</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -3437,19 +5344,19 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="G26" t="s">
         <v>278</v>
@@ -3457,19 +5364,19 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>262</v>
@@ -3477,19 +5384,19 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>279</v>
@@ -3497,16 +5404,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -3514,769 +5421,781 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="39">
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Y42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G43" t="s">
+      <c r="Z43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Y43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
+      <c r="Z44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Y44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+      <c r="Z45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Y45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
+      <c r="Z46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Y46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
+      <c r="Z47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Y47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
+      <c r="Z48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Y48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G49" t="s">
+      <c r="Z49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Y49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G50" t="s">
+      <c r="Z50" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Y50" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
+      <c r="Z51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Y51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
+      <c r="Z52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Y52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G53" t="s">
+      <c r="Z53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Y53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
+      <c r="Z54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Y54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
+      <c r="Z55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Y55" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+      <c r="Z56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Y56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G57" t="s">
+      <c r="Z57" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="G58" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
+      <c r="Z59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Y58" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G59" t="s">
+      <c r="Z60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Y59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
+      <c r="Z61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Y60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
+      <c r="Z62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Y61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G62" t="s">
+      <c r="Z63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Y62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
+      <c r="Z64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Y63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G64" t="s">
+      <c r="Z65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Y64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
+      <c r="Z66" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Y65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
+      <c r="Z67" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Y66" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
+      <c r="Z68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Y67" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G68" t="s">
+      <c r="Z69" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Y68" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
+      <c r="Z70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Y69" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G70" t="s">
+      <c r="Z71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Y70" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
+      <c r="Z72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Y71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
+      <c r="Z73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Y72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
+      <c r="Z74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Y73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G74" t="s">
+      <c r="Z75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Y74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G75" t="s">
+      <c r="Z76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Y75" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G76" t="s">
+      <c r="Z77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Y76" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G77" t="s">
+      <c r="Z78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Y77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G78" t="s">
+      <c r="Z79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Y78" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G79" t="s">
+      <c r="Z80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Y79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
+      <c r="Z81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Y80" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
+      <c r="Z82" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Y81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G82" t="s">
+      <c r="Z83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y82" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G83" t="s">
+      <c r="Z84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Y83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
+      <c r="Z85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G85" t="s">
+      <c r="Z86" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Y85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
+      <c r="Z87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Y86" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
+      <c r="Z88" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Y87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
+      <c r="Z89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Y88" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G89" t="s">
+      <c r="Z90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G90" t="s">
+      <c r="Z91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Y90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
+      <c r="Z92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Y91" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
+      <c r="Z93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Y92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G93" t="s">
+      <c r="Z94" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Y93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
+      <c r="Z95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Y94" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G95" t="s">
+      <c r="Z96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Y95" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y98" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y129" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +6226,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4326,7 +6245,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4343,7 +6262,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4388,7 +6307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>532</v>
       </c>
@@ -4413,7 +6332,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4436,7 +6355,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>535</v>
       </c>
@@ -4461,7 +6380,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4484,7 +6403,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -4501,7 +6420,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -4518,7 +6437,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -4535,7 +6454,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4552,7 +6471,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4569,7 +6488,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4586,7 +6505,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4603,7 +6522,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4620,7 +6539,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4637,7 +6556,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4654,7 +6573,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4671,7 +6590,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4688,7 +6607,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4705,7 +6624,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4722,7 +6641,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4739,7 +6658,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4756,7 +6675,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4773,7 +6692,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4790,7 +6709,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4807,7 +6726,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4824,7 +6743,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4841,7 +6760,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4858,7 +6777,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4875,7 +6794,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4892,7 +6811,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4909,7 +6828,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4926,7 +6845,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4943,7 +6862,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4960,7 +6879,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4977,7 +6896,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4994,7 +6913,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5011,7 +6930,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5028,7 +6947,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5045,7 +6964,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5062,7 +6981,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5079,7 +6998,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5096,7 +7015,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5113,7 +7032,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5130,7 +7049,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5147,7 +7066,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5164,7 +7083,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5181,7 +7100,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5198,7 +7117,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5215,7 +7134,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5232,7 +7151,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5249,7 +7168,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5266,7 +7185,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5283,7 +7202,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5300,7 +7219,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5317,7 +7236,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5334,7 +7253,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5351,7 +7270,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5368,7 +7287,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5385,7 +7304,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5402,7 +7321,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5419,7 +7338,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5436,7 +7355,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5453,7 +7372,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5470,7 +7389,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5487,7 +7406,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5504,7 +7423,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5521,7 +7440,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5538,7 +7457,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5555,7 +7474,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5572,7 +7491,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5589,7 +7508,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5606,7 +7525,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5623,7 +7542,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5640,7 +7559,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5657,7 +7576,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5674,7 +7593,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5691,7 +7610,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5708,7 +7627,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5725,7 +7644,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5742,7 +7661,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5759,7 +7678,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5776,7 +7695,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5793,7 +7712,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5810,7 +7729,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5827,7 +7746,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5844,7 +7763,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5861,7 +7780,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5878,7 +7797,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5895,7 +7814,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5912,7 +7831,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5929,7 +7848,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5946,7 +7865,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5963,7 +7882,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5980,7 +7899,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5997,7 +7916,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6014,7 +7933,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6031,7 +7950,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6049,7 +7968,7 @@
       <c r="O100" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6057,54 +7976,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C100" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D100" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0971804D-E01F-D348-A42D-0B135917972B}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0971804D-E01F-D348-A42D-0B135917972B}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="29.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.33203125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="9.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="14.1640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="29.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="51.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +8054,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -6154,7 +8073,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -6171,7 +8090,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -6216,7 +8135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>532</v>
       </c>
@@ -6241,7 +8160,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -6266,7 +8185,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>535</v>
       </c>
@@ -6291,7 +8210,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -6314,7 +8233,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -6331,7 +8250,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -6348,7 +8267,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -6365,7 +8284,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -6382,7 +8301,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -6399,7 +8318,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -6416,7 +8335,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -6433,7 +8352,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -6450,7 +8369,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -6467,7 +8386,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6484,7 +8403,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6501,7 +8420,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6518,7 +8437,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6535,7 +8454,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6552,7 +8471,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6569,7 +8488,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6586,7 +8505,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6603,7 +8522,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6620,7 +8539,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6637,7 +8556,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -6654,7 +8573,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6671,7 +8590,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6688,7 +8607,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6705,7 +8624,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6722,7 +8641,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6739,7 +8658,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6756,7 +8675,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6773,7 +8692,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6790,7 +8709,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6807,7 +8726,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6824,7 +8743,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6841,7 +8760,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6858,7 +8777,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6875,7 +8794,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6892,7 +8811,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6909,7 +8828,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6926,7 +8845,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6943,7 +8862,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6960,7 +8879,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6977,7 +8896,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6994,7 +8913,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -7011,7 +8930,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -7028,7 +8947,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -7045,7 +8964,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -7062,7 +8981,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -7079,7 +8998,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -7096,7 +9015,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -7113,7 +9032,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -7130,7 +9049,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -7147,7 +9066,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -7164,7 +9083,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -7181,7 +9100,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -7198,7 +9117,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -7215,7 +9134,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -7232,7 +9151,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -7249,7 +9168,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -7266,7 +9185,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -7283,7 +9202,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -7300,7 +9219,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -7317,7 +9236,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -7334,7 +9253,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -7351,7 +9270,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -7368,7 +9287,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -7385,7 +9304,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -7402,7 +9321,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -7419,7 +9338,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -7436,7 +9355,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -7453,7 +9372,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -7470,7 +9389,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -7487,7 +9406,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -7504,7 +9423,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -7521,7 +9440,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -7538,7 +9457,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -7555,7 +9474,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -7572,7 +9491,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -7589,7 +9508,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -7606,7 +9525,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -7623,7 +9542,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -7640,7 +9559,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -7657,7 +9576,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -7674,7 +9593,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -7691,7 +9610,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -7708,7 +9627,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -7725,7 +9644,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -7742,7 +9661,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -7759,7 +9678,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -7776,7 +9695,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -7793,7 +9712,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -7810,7 +9729,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -7827,7 +9746,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -7844,7 +9763,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -7861,7 +9780,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -7879,7 +9798,7 @@
       <c r="O100" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7887,24 +9806,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D100" xr:uid="{A9B6D07B-C2ED-5746-A29C-34C54052E52D}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D100" type="list" xr:uid="{A9B6D07B-C2ED-5746-A29C-34C54052E52D}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{65D45FDC-B4E1-8F43-A168-F3E90162ABBF}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C100" type="list" xr:uid="{65D45FDC-B4E1-8F43-A168-F3E90162ABBF}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,13 +46,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1728,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2105,8 +2108,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2584,8 +2688,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3601,6 +3858,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3608,7 +4191,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3837,52 +4420,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4237,7 +4868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4322,24 +4953,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>545</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4417,24 +5045,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>547</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4505,22 +5130,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4588,22 +5213,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4662,22 +5287,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4730,22 +5355,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4792,22 +5417,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4848,22 +5473,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4904,13 +5529,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4945,13 +5570,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4983,13 +5608,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5021,13 +5646,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5056,13 +5681,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5091,13 +5716,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5123,13 +5748,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5147,7 +5772,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -5155,13 +5780,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5179,15 +5804,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5204,10 +5829,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5224,10 +5852,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5244,10 +5872,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5264,10 +5892,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5284,10 +5912,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5304,10 +5932,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5324,16 +5952,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>545</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -5344,16 +5972,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -5364,16 +5992,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -5384,16 +6012,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -5404,13 +6032,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -5421,13 +6049,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -5435,21 +6063,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5460,7 +6085,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5471,7 +6096,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5482,7 +6107,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5493,7 +6118,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5504,7 +6129,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5515,7 +6140,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5526,7 +6151,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5537,7 +6162,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5545,7 +6170,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5553,7 +6178,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5561,7 +6186,7 @@
       <c r="G42" t="s">
         <v>548</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5569,7 +6194,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5577,7 +6202,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5585,7 +6210,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5593,7 +6218,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5601,7 +6226,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5609,7 +6234,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5617,7 +6242,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5625,7 +6250,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>543</v>
       </c>
     </row>
@@ -5633,7 +6258,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5641,7 +6266,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5649,7 +6274,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5657,7 +6282,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5665,7 +6290,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5673,7 +6298,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5681,7 +6306,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5689,7 +6314,7 @@
       <c r="G58" t="s">
         <v>549</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5697,7 +6322,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5705,7 +6330,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5713,7 +6338,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5721,7 +6346,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5729,7 +6354,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5737,7 +6362,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5745,7 +6370,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5753,7 +6378,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5761,7 +6386,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5769,7 +6394,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5777,7 +6402,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5785,7 +6410,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5793,7 +6418,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5801,7 +6426,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5809,7 +6434,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5817,7 +6442,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5825,7 +6450,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5833,7 +6458,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5841,7 +6466,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5849,7 +6474,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5857,7 +6482,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5865,7 +6490,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5873,7 +6498,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5881,7 +6506,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5889,7 +6514,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5897,7 +6522,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5905,7 +6530,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5913,7 +6538,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5921,7 +6546,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5929,7 +6554,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5937,7 +6562,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5945,7 +6570,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5953,7 +6578,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5961,7 +6586,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5969,7 +6594,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5977,7 +6602,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5985,7 +6610,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5993,7 +6618,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6001,167 +6626,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1721,6 +1721,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1746,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2209,8 +2227,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2841,8 +3162,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4184,6 +4964,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4191,7 +5949,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4468,52 +6226,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4868,7 +6770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5249,7 +7151,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -5323,7 +7225,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -5385,7 +7287,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -5447,7 +7349,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -5503,7 +7405,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -5547,7 +7449,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -5588,7 +7490,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -5626,7 +7528,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -5664,7 +7566,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -5699,7 +7601,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -5734,7 +7636,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -5766,7 +7668,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -5798,7 +7700,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -5824,7 +7726,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -5847,7 +7749,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -5867,7 +7769,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -5887,7 +7789,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -5907,7 +7809,7 @@
         <v>546</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -5927,7 +7829,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -5947,13 +7849,13 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>551</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -5967,13 +7869,13 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -5987,13 +7889,13 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -6007,13 +7909,13 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -6027,13 +7929,13 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -6044,13 +7946,13 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -6061,10 +7963,10 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -6072,10 +7974,10 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -6083,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -6094,10 +7996,10 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -6105,10 +8007,10 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35">
@@ -6116,10 +8018,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -6127,10 +8029,10 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -6138,10 +8040,10 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -6149,10 +8051,10 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -6160,633 +8062,661 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>548</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>548</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>543</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>549</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -21,39 +21,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5617" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1739,6 +1740,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1765,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2530,8 +2549,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3621,8 +3842,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -5942,6 +6469,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5949,7 +7128,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6370,52 +7549,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6770,7 +8045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6795,81 +8070,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6887,81 +8165,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6978,76 +8259,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7061,82 +8342,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -7144,73 +8425,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>554</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -7218,1505 +8499,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>542</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>550</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>546</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>551</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>548</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>549</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5617" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6742" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1758,6 +1758,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1780,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2751,8 +2766,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4148,8 +4365,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -4186,6 +4709,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7128,7 +8303,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7645,52 +8820,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8361,7 +9632,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>566</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -8397,7 +9668,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>567</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -8444,7 +9715,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -8515,7 +9786,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -8577,7 +9848,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -8636,7 +9907,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -8692,7 +9963,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -8736,7 +10007,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -8777,7 +10048,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -8815,7 +10086,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>542</v>
@@ -8853,7 +10124,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -8888,7 +10159,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -8920,7 +10191,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -8952,7 +10223,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>550</v>
@@ -8984,7 +10255,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -9010,7 +10281,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -9027,13 +10298,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>565</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -9047,13 +10318,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -9067,13 +10338,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -9087,13 +10358,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>546</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>564</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -9107,13 +10378,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>546</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -9127,13 +10398,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>551</v>
@@ -9147,13 +10418,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -9167,13 +10438,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -9187,13 +10458,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -9207,13 +10478,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -9224,13 +10495,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -9241,10 +10512,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -9255,7 +10529,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -9266,7 +10540,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -9277,7 +10551,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -9288,7 +10562,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -9299,7 +10573,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -9310,7 +10584,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -9321,7 +10595,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -9332,7 +10606,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -9343,7 +10617,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -9353,6 +10627,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6742" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7307" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1773,6 +1773,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2968,8 +2977,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4671,8 +4781,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -4709,6 +4972,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8303,7 +8892,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8916,52 +9505,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9316,7 +9953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9782,6 +10419,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>568</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -10298,7 +10938,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>565</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -10318,7 +10958,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -10338,7 +10978,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -10358,7 +10998,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>546</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -10378,7 +11018,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>546</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -10398,7 +11038,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -10418,7 +11058,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -10438,7 +11078,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -10458,7 +11098,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -10478,7 +11118,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -10495,7 +11135,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -10512,7 +11152,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -10529,7 +11169,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -10540,7 +11180,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -10551,7 +11191,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -10562,7 +11202,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -10573,7 +11213,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -10584,7 +11224,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -10595,7 +11235,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -10606,7 +11246,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -10617,7 +11257,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -10627,9 +11267,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -11103,186 +11740,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>559</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>553</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7307" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7872" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1789,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3078,8 +3078,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4934,8 +5035,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -4972,6 +5226,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8892,7 +9472,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9553,52 +10133,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/failures/artifact/script/PlanTest-Script4.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script4.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7872" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8437" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1789,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3179,8 +3179,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5188,8 +5289,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -5226,6 +5480,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9472,7 +10052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10181,52 +10761,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
